--- a/data/processed/plastics_production_2050.xlsx
+++ b/data/processed/plastics_production_2050.xlsx
@@ -498,34 +498,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>31.61316322431611</v>
+        <v>0.2022112012158055</v>
       </c>
       <c r="C2">
-        <v>10.53772107477203</v>
+        <v>0.06740373373860181</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.49569571793313</v>
+        <v>0.07353134589665652</v>
       </c>
       <c r="F2">
-        <v>21.07544214954407</v>
+        <v>0.1348074674772037</v>
       </c>
       <c r="G2">
-        <v>77.59594609604862</v>
+        <v>0.4963365848024316</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.788411733017018</v>
+        <v>0.049817985024835</v>
       </c>
       <c r="J2">
-        <v>15.20297970284922</v>
+        <v>0.09724470676847792</v>
       </c>
       <c r="K2">
-        <v>4.78987321580547</v>
+        <v>0.03063806079027356</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -533,34 +533,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.5977906653887219</v>
+        <v>0.003823724327010239</v>
       </c>
       <c r="C3">
-        <v>1.687863911944424</v>
+        <v>0.01079629822688483</v>
       </c>
       <c r="D3">
-        <v>0.08895558294599193</v>
+        <v>0.0005689978887722921</v>
       </c>
       <c r="E3">
-        <v>1.664617970041467</v>
+        <v>0.01064760725744522</v>
       </c>
       <c r="F3">
-        <v>0.6773647767323814</v>
+        <v>0.004332714317924729</v>
       </c>
       <c r="G3">
-        <v>1.194645450916845</v>
+        <v>0.007641462366851201</v>
       </c>
       <c r="H3">
-        <v>0.03292433780198831</v>
+        <v>0.0002105981218731501</v>
       </c>
       <c r="I3">
-        <v>2.022073679502984</v>
+        <v>0.01293404659354277</v>
       </c>
       <c r="J3">
-        <v>3.947087822389825</v>
+        <v>0.02524725895059549</v>
       </c>
       <c r="K3">
-        <v>2.314536189531271</v>
+        <v>0.01480476167673405</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -568,34 +568,34 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>12.74994291140432</v>
+        <v>0.0815540785445798</v>
       </c>
       <c r="C4">
-        <v>21.08179924846724</v>
+        <v>0.1348481890246511</v>
       </c>
       <c r="D4">
-        <v>0.6256669374649636</v>
+        <v>0.004002032865192195</v>
       </c>
       <c r="E4">
-        <v>28.17149237808416</v>
+        <v>0.1801968932790502</v>
       </c>
       <c r="F4">
-        <v>12.69042550787502</v>
+        <v>0.08117337982020699</v>
       </c>
       <c r="G4">
-        <v>3.516319340892463</v>
+        <v>0.02249187982312175</v>
       </c>
       <c r="H4">
-        <v>0.7321797530185323</v>
+        <v>0.004683334309913983</v>
       </c>
       <c r="I4">
-        <v>4.966075334463767</v>
+        <v>0.03176513814214012</v>
       </c>
       <c r="J4">
-        <v>9.693779052873271</v>
+        <v>0.06200554965345752</v>
       </c>
       <c r="K4">
-        <v>7.244544176831808</v>
+        <v>0.04633919766719524</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -603,34 +603,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>2.218364221044714</v>
+        <v>0.0141896046087907</v>
       </c>
       <c r="C5">
-        <v>5.545910552611786</v>
+        <v>0.03547401152197674</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.982638994701212</v>
+        <v>0.06385322073955811</v>
       </c>
       <c r="F5">
-        <v>2.501337788978034</v>
+        <v>0.01599962435470132</v>
       </c>
       <c r="G5">
-        <v>4.436728442089429</v>
+        <v>0.02837920921758139</v>
       </c>
       <c r="H5">
-        <v>7.812926224690393</v>
+        <v>0.04997481158157117</v>
       </c>
       <c r="I5">
-        <v>1.502956789325687</v>
+        <v>0.009613553257988275</v>
       </c>
       <c r="J5">
-        <v>2.933771652763741</v>
+        <v>0.01876565595959311</v>
       </c>
       <c r="K5">
-        <v>11.09182110522357</v>
+        <v>0.07094802304395346</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.057567097417851</v>
+        <v>0.04514320458493593</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -673,34 +673,34 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>9.815740579650562</v>
+        <v>0.06278565673175743</v>
       </c>
       <c r="C7">
-        <v>11.59234000391822</v>
+        <v>0.07414954320540325</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>43.18925855046248</v>
+        <v>0.2762568896197328</v>
       </c>
       <c r="F7">
-        <v>6.499046171993662</v>
+        <v>0.04157066690256423</v>
       </c>
       <c r="G7">
-        <v>13.74203681151079</v>
+        <v>0.08789991942446043</v>
       </c>
       <c r="H7">
-        <v>0.3719722337617326</v>
+        <v>0.002379292809665981</v>
       </c>
       <c r="I7">
-        <v>9.31032304302899</v>
+        <v>0.05955279093798133</v>
       </c>
       <c r="J7">
-        <v>18.17375057999259</v>
+        <v>0.1162470479109395</v>
       </c>
       <c r="K7">
-        <v>16.68675898540596</v>
+        <v>0.1067356164439877</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -708,22 +708,22 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>4.496919599029819</v>
+        <v>0.02876421861659211</v>
       </c>
       <c r="C8">
-        <v>12.78760231567037</v>
+        <v>0.08179496664101756</v>
       </c>
       <c r="D8">
-        <v>1.940516334534557</v>
+        <v>0.01241237136809434</v>
       </c>
       <c r="E8">
-        <v>16.64591479629092</v>
+        <v>0.1064743813469507</v>
       </c>
       <c r="F8">
-        <v>0.6580885050558895</v>
+        <v>0.00420941518113372</v>
       </c>
       <c r="G8">
-        <v>1.448514897166622</v>
+        <v>0.009265320016057255</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>3.311568104571314</v>
+        <v>0.02118220413461993</v>
       </c>
       <c r="C9">
-        <v>7.121739615266029</v>
+        <v>0.04555368863347077</v>
       </c>
       <c r="D9">
-        <v>1.225801049637289</v>
+        <v>0.00784074711494108</v>
       </c>
       <c r="E9">
-        <v>11.34121853080813</v>
+        <v>0.07254327812956464</v>
       </c>
       <c r="F9">
-        <v>0.5007524026976998</v>
+        <v>0.00320302626426497</v>
       </c>
       <c r="G9">
-        <v>1.093856452363084</v>
+        <v>0.00699677311058213</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.8395524772152625</v>
+        <v>0.005370136259481107</v>
       </c>
       <c r="C10">
-        <v>0.582687786703584</v>
+        <v>0.003727119979102153</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>11.11021108437379</v>
+        <v>0.07106565582723764</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>44.20151681561042</v>
+        <v>0.2827317822501187</v>
       </c>
       <c r="E11">
-        <v>2.361421114260194</v>
+        <v>0.01510465812888249</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -848,22 +848,22 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>1.198951865919662</v>
+        <v>0.007669008267242427</v>
       </c>
       <c r="C12">
-        <v>0.09965284306190519</v>
+        <v>0.000637422150979973</v>
       </c>
       <c r="D12">
-        <v>8.95532922625015</v>
+        <v>0.05728211100393922</v>
       </c>
       <c r="E12">
-        <v>12.17955791595818</v>
+        <v>0.07790565493402388</v>
       </c>
       <c r="F12">
-        <v>9.623960437582951</v>
+        <v>0.06155896183774173</v>
       </c>
       <c r="G12">
-        <v>2.220463238629883</v>
+        <v>0.01420303134613205</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -883,22 +883,22 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0.4197762386076312</v>
+        <v>0.002685068129740553</v>
       </c>
       <c r="C13">
-        <v>0.0647430874115093</v>
+        <v>0.0004141244421224613</v>
       </c>
       <c r="D13">
-        <v>6.785684381920705</v>
+        <v>0.0434041358148524</v>
       </c>
       <c r="E13">
-        <v>8.763668864715369</v>
+        <v>0.0560561694637545</v>
       </c>
       <c r="F13">
-        <v>6.903996073107364</v>
+        <v>0.04416090792857354</v>
       </c>
       <c r="G13">
-        <v>1.580014875635565</v>
+        <v>0.01010645004861863</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -918,22 +918,22 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>4.287819960011046</v>
+        <v>0.02742672800842467</v>
       </c>
       <c r="C14">
-        <v>1.956962506199851</v>
+        <v>0.01251756810705506</v>
       </c>
       <c r="D14">
-        <v>2.680565281996524</v>
+        <v>0.01714604054829658</v>
       </c>
       <c r="E14">
-        <v>14.71467566353567</v>
+        <v>0.09412135092419757</v>
       </c>
       <c r="F14">
-        <v>2.253843440084652</v>
+        <v>0.01441654537300458</v>
       </c>
       <c r="G14">
-        <v>0.3534878458206135</v>
+        <v>0.002261059254358465</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -953,34 +953,34 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>49.32653599496231</v>
+        <v>0.3155135940754646</v>
       </c>
       <c r="C15">
-        <v>86.2450018331412</v>
+        <v>0.5516598713154824</v>
       </c>
       <c r="D15">
-        <v>15.65278978955333</v>
+        <v>0.1001219295900708</v>
       </c>
       <c r="E15">
-        <v>21.10620164809067</v>
+        <v>0.135004281264565</v>
       </c>
       <c r="F15">
-        <v>17.99459939200667</v>
+        <v>0.1151011441123707</v>
       </c>
       <c r="G15">
-        <v>2.220463238629883</v>
+        <v>0.01420303134613205</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.546313309181243</v>
+        <v>0.003494453283495084</v>
       </c>
       <c r="J15">
-        <v>1.066403579521786</v>
+        <v>0.006821172809382403</v>
       </c>
       <c r="K15">
-        <v>0.8063584443515146</v>
+        <v>0.005157813046438744</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -988,16 +988,16 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>2.447521298276313</v>
+        <v>0.01565538790242263</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>71.47715424326036</v>
+        <v>0.4571982996134094</v>
       </c>
       <c r="E16">
-        <v>35.17151785408053</v>
+        <v>0.2249719973878859</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>26.25109437581136</v>
+        <v>0.1679131722391391</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1023,34 +1023,34 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>8.732084275630253</v>
+        <v>0.05585411764705882</v>
       </c>
       <c r="C17">
-        <v>1.091510534453782</v>
+        <v>0.006981764705882353</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.37927389579832</v>
+        <v>0.1815258823529412</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.274531603361344</v>
+        <v>0.02094529411764706</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.916046257202068</v>
+        <v>0.03784154312131357</v>
       </c>
       <c r="J17">
-        <v>11.54812229405844</v>
+        <v>0.07386669217280407</v>
       </c>
       <c r="K17">
-        <v>15.28114748235294</v>
+        <v>0.09774470588235293</v>
       </c>
     </row>
   </sheetData>
